--- a/Data Dictionaries (Upload Here)/DOC/DOC_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/DOC/DOC_Data_Dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_Research\P20Win\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonderlyc\Documents\GitHub\Data-Dictionaries\Data Dictionaries (Upload Here)\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD64BC-286A-4F0A-ADE5-D38ADC029445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Template" sheetId="1" r:id="rId1"/>
@@ -20,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
   <si>
     <t>Agency</t>
   </si>
@@ -279,12 +269,15 @@
   </si>
   <si>
     <t>Offender jurisdiction on 1st-of-the-month</t>
+  </si>
+  <si>
+    <t>Connecticut Department of Correction (DOC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -680,13 +673,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +787,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -817,7 +810,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -840,7 +833,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -863,7 +856,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -886,7 +879,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -909,7 +902,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -932,7 +925,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -955,7 +948,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -978,7 +971,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -1001,7 +994,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -1024,7 +1017,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>68</v>
@@ -1047,7 +1040,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -1070,7 +1063,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -1093,7 +1086,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1116,7 +1109,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -1139,7 +1132,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -1162,7 +1155,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -1185,7 +1178,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -1208,7 +1201,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -1231,7 +1224,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -1254,7 +1247,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -1277,7 +1270,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
@@ -1300,7 +1293,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>68</v>
@@ -1323,7 +1316,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1608,15 +1601,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1627,6 +1611,15 @@
     <TaxCatchAll xmlns="0fb435e6-22b0-445c-904d-be41999f5336"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1650,14 +1643,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529FB66F-F798-4FA8-A736-604E47CC8578}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DFE17D6-3443-4E89-8BF7-9CFF61D2DDC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1673,4 +1658,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529FB66F-F798-4FA8-A736-604E47CC8578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data Dictionaries (Upload Here)/DOC/DOC_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/DOC/DOC_Data_Dictionary.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonderlyc\Documents\GitHub\Data-Dictionaries\Data Dictionaries (Upload Here)\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD64BC-286A-4F0A-ADE5-D38ADC029445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970AF65D-1071-4F01-A11E-8A2EF4D38291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blank Template" sheetId="1" r:id="rId1"/>
-    <sheet name="DOC Data Dictionary 3-28-24" sheetId="3" r:id="rId2"/>
+    <sheet name="DOC Data Dictionary 3-28-24" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="80">
   <si>
     <t>Agency</t>
   </si>
@@ -64,9 +63,6 @@
     <t>Inmate Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Department of Correction </t>
-  </si>
-  <si>
     <t>RecordID</t>
   </si>
   <si>
@@ -233,9 +229,6 @@
   </si>
   <si>
     <t>Offender Based Information System</t>
-  </si>
-  <si>
-    <t>Connecticut Department of Correction</t>
   </si>
   <si>
     <t>Sex assigned at birth</t>
@@ -622,64 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +658,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -730,21 +670,21 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -753,21 +693,21 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -776,44 +716,44 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -822,519 +762,519 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
-      </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1601,6 +1541,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1611,15 +1560,6 @@
     <TaxCatchAll xmlns="0fb435e6-22b0-445c-904d-be41999f5336"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,6 +1583,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529FB66F-F798-4FA8-A736-604E47CC8578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DFE17D6-3443-4E89-8BF7-9CFF61D2DDC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1658,12 +1606,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529FB66F-F798-4FA8-A736-604E47CC8578}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>